--- a/20_Projektmanagement/Projektplan_gantt.xlsx
+++ b/20_Projektmanagement/Projektplan_gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawhamburgedu-my.sharepoint.com/personal/wmx774_haw-hamburg_de/Documents/80 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivenp\Documents\RF_Research_Project\20_Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="799" documentId="13_ncr:1_{22B7E144-3FE8-4F33-BC5D-87193014D372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7259DB0-1DF5-4040-B158-F56A54C484E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF52CBC-621F-4813-A793-C5D01DFD39C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -144,30 +144,6 @@
     <t>Sprints</t>
   </si>
   <si>
-    <t>Projektplanung - Socket Programmierung</t>
-  </si>
-  <si>
-    <t>Projekt Pitch</t>
-  </si>
-  <si>
-    <t>Statuspräsentation</t>
-  </si>
-  <si>
-    <t>Planung</t>
-  </si>
-  <si>
-    <t>Lab Preparation</t>
-  </si>
-  <si>
-    <t>Lab Session</t>
-  </si>
-  <si>
-    <t>Labor Vorbereitung</t>
-  </si>
-  <si>
-    <t>Inhalts Vorbereitung</t>
-  </si>
-  <si>
     <t>Grobkonzept</t>
   </si>
   <si>
@@ -175,6 +151,81 @@
   </si>
   <si>
     <t>Verantwortlichkeiten verteilen</t>
+  </si>
+  <si>
+    <t>Schema erstellen</t>
+  </si>
+  <si>
+    <t>Domumentation lesen</t>
+  </si>
+  <si>
+    <t>Systematic Trial and Error</t>
+  </si>
+  <si>
+    <t>Projekt Idee Synchronisiert</t>
+  </si>
+  <si>
+    <t>PLL LO-Konfiguriert</t>
+  </si>
+  <si>
+    <t>Mischer Inbetriebnahme</t>
+  </si>
+  <si>
+    <t>Demodulator Inbetriebnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalgen. Kabelgebundene Übertragung </t>
+  </si>
+  <si>
+    <t>Signal erfolgreich per Funk übertragen</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Arduino due DAC programmieren</t>
+  </si>
+  <si>
+    <t>Arduino due ADC programmieren</t>
+  </si>
+  <si>
+    <t>Schnittstelle PC &amp; Arduino</t>
+  </si>
+  <si>
+    <t>Matlab Mic -&gt; Data -&gt; Arduino -&gt; …</t>
+  </si>
+  <si>
+    <t>Matlab Signal -&gt; Data -&gt; Arduino -&gt; …</t>
+  </si>
+  <si>
+    <t>Arduino multirate System</t>
+  </si>
+  <si>
+    <t>Mic -&gt; Matlab -&gt; Arduino -&gt; Funk -&gt; …</t>
+  </si>
+  <si>
+    <t>Vorstellung</t>
+  </si>
+  <si>
+    <t>Paper erstellen</t>
+  </si>
+  <si>
+    <t>Vortrag halten</t>
+  </si>
+  <si>
+    <t>Präsentation erstellen</t>
+  </si>
+  <si>
+    <t>Paper vorbereiten</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Prototyp fertigstellen</t>
+  </si>
+  <si>
+    <t>Projektplanung - RF Research Project</t>
   </si>
 </sst>
 </file>
@@ -186,7 +237,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +322,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +489,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -528,7 +587,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$5" horiz="1" max="4" page="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$5" horiz="1" max="4" page="0" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,13 +598,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>48986</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>56</xdr:col>
           <xdr:colOff>201386</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>125186</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -849,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5C8164-86E2-4081-9705-8102EE1AE2BF}">
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -881,7 +940,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="24" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -964,7 +1023,7 @@
       </c>
       <c r="H4" s="25">
         <f>WEEKNUM(H5)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -974,7 +1033,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="25">
         <f>WEEKNUM(O5)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
@@ -984,7 +1043,7 @@
       <c r="U4" s="27"/>
       <c r="V4" s="25">
         <f>WEEKNUM(V5)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W4" s="26"/>
       <c r="X4" s="26"/>
@@ -994,7 +1053,7 @@
       <c r="AB4" s="27"/>
       <c r="AC4" s="25">
         <f>WEEKNUM(AC5)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD4" s="26"/>
       <c r="AE4" s="26"/>
@@ -1004,7 +1063,7 @@
       <c r="AI4" s="27"/>
       <c r="AJ4" s="25">
         <f>WEEKNUM(AJ5)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26"/>
@@ -1014,7 +1073,7 @@
       <c r="AP4" s="27"/>
       <c r="AQ4" s="25">
         <f>WEEKNUM(AQ5)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR4" s="26"/>
       <c r="AS4" s="26"/>
@@ -1024,7 +1083,7 @@
       <c r="AW4" s="27"/>
       <c r="AX4" s="25">
         <f>WEEKNUM(AX5)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AY4" s="26"/>
       <c r="AZ4" s="26"/>
@@ -1034,7 +1093,7 @@
       <c r="BD4" s="27"/>
       <c r="BE4" s="25">
         <f>WEEKNUM(BE5)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BF4" s="26"/>
       <c r="BG4" s="26"/>
@@ -1045,231 +1104,231 @@
     </row>
     <row r="5" spans="1:63" ht="27" x14ac:dyDescent="0.4">
       <c r="D5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <f>H6</f>
-        <v>45936</v>
+        <v>45950</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:BK5" si="0">I6</f>
-        <v>45937</v>
+        <v>45951</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>45938</v>
+        <v>45952</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>45939</v>
+        <v>45953</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>45940</v>
+        <v>45954</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>45941</v>
+        <v>45955</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="0"/>
-        <v>45942</v>
+        <v>45956</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>45943</v>
+        <v>45957</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>45944</v>
+        <v>45958</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>45945</v>
+        <v>45959</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>45946</v>
+        <v>45960</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>45948</v>
+        <v>45962</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" si="0"/>
-        <v>45949</v>
+        <v>45963</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" si="0"/>
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>45951</v>
+        <v>45965</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>45952</v>
+        <v>45966</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>45953</v>
+        <v>45967</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>45954</v>
+        <v>45968</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>45955</v>
+        <v>45969</v>
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="0"/>
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="AI5" s="5">
         <f t="shared" si="0"/>
-        <v>45963</v>
+        <v>45977</v>
       </c>
       <c r="AJ5" s="3">
         <f t="shared" si="0"/>
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="0"/>
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="0"/>
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="0"/>
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="AN5" s="4">
         <f t="shared" si="0"/>
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="AO5" s="4">
         <f t="shared" si="0"/>
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="AP5" s="5">
         <f t="shared" si="0"/>
-        <v>45970</v>
+        <v>45984</v>
       </c>
       <c r="AQ5" s="3">
         <f t="shared" si="0"/>
-        <v>45971</v>
+        <v>45985</v>
       </c>
       <c r="AR5" s="4">
         <f t="shared" si="0"/>
-        <v>45972</v>
+        <v>45986</v>
       </c>
       <c r="AS5" s="4">
         <f t="shared" si="0"/>
-        <v>45973</v>
+        <v>45987</v>
       </c>
       <c r="AT5" s="4">
         <f t="shared" si="0"/>
-        <v>45974</v>
+        <v>45988</v>
       </c>
       <c r="AU5" s="4">
         <f t="shared" si="0"/>
-        <v>45975</v>
+        <v>45989</v>
       </c>
       <c r="AV5" s="4">
         <f t="shared" si="0"/>
-        <v>45976</v>
+        <v>45990</v>
       </c>
       <c r="AW5" s="5">
         <f t="shared" si="0"/>
-        <v>45977</v>
+        <v>45991</v>
       </c>
       <c r="AX5" s="3">
         <f t="shared" si="0"/>
-        <v>45978</v>
+        <v>45992</v>
       </c>
       <c r="AY5" s="4">
         <f t="shared" si="0"/>
-        <v>45979</v>
+        <v>45993</v>
       </c>
       <c r="AZ5" s="4">
         <f t="shared" si="0"/>
-        <v>45980</v>
+        <v>45994</v>
       </c>
       <c r="BA5" s="4">
         <f t="shared" si="0"/>
-        <v>45981</v>
+        <v>45995</v>
       </c>
       <c r="BB5" s="4">
         <f t="shared" si="0"/>
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="BC5" s="4">
         <f t="shared" si="0"/>
-        <v>45983</v>
+        <v>45997</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" si="0"/>
-        <v>45984</v>
+        <v>45998</v>
       </c>
       <c r="BE5" s="3">
         <f t="shared" si="0"/>
-        <v>45985</v>
+        <v>45999</v>
       </c>
       <c r="BF5" s="4">
         <f t="shared" si="0"/>
-        <v>45986</v>
+        <v>46000</v>
       </c>
       <c r="BG5" s="4">
         <f t="shared" si="0"/>
-        <v>45987</v>
+        <v>46001</v>
       </c>
       <c r="BH5" s="4">
         <f t="shared" si="0"/>
-        <v>45988</v>
+        <v>46002</v>
       </c>
       <c r="BI5" s="4">
         <f t="shared" si="0"/>
-        <v>45989</v>
+        <v>46003</v>
       </c>
       <c r="BJ5" s="4">
         <f t="shared" si="0"/>
-        <v>45990</v>
+        <v>46004</v>
       </c>
       <c r="BK5" s="5">
         <f t="shared" si="0"/>
-        <v>45991</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.4">
@@ -1293,227 +1352,227 @@
       </c>
       <c r="H6" s="7">
         <f>D4-WEEKDAY(D4,2)+1+D5*7</f>
-        <v>45936</v>
+        <v>45950</v>
       </c>
       <c r="I6" s="8">
         <f>H6+1</f>
-        <v>45937</v>
+        <v>45951</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:AI6" si="1">I6+1</f>
-        <v>45938</v>
+        <v>45952</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="1"/>
-        <v>45939</v>
+        <v>45953</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
-        <v>45940</v>
+        <v>45954</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="1"/>
-        <v>45941</v>
+        <v>45955</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="1"/>
-        <v>45942</v>
+        <v>45956</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="1"/>
-        <v>45943</v>
+        <v>45957</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>45944</v>
+        <v>45958</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>45945</v>
+        <v>45959</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="1"/>
-        <v>45946</v>
+        <v>45960</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" si="1"/>
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>45948</v>
+        <v>45962</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="1"/>
-        <v>45949</v>
+        <v>45963</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="1"/>
-        <v>45950</v>
+        <v>45964</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="1"/>
-        <v>45951</v>
+        <v>45965</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="1"/>
-        <v>45952</v>
+        <v>45966</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="1"/>
-        <v>45953</v>
+        <v>45967</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="1"/>
-        <v>45954</v>
+        <v>45968</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" si="1"/>
-        <v>45955</v>
+        <v>45969</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="1"/>
-        <v>45956</v>
+        <v>45970</v>
       </c>
       <c r="AC6" s="8">
         <f>AB6+1</f>
-        <v>45957</v>
+        <v>45971</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="1"/>
-        <v>45958</v>
+        <v>45972</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" si="1"/>
-        <v>45959</v>
+        <v>45973</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="1"/>
-        <v>45960</v>
+        <v>45974</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="1"/>
-        <v>45961</v>
+        <v>45975</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45976</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" si="1"/>
-        <v>45963</v>
+        <v>45977</v>
       </c>
       <c r="AJ6" s="8">
         <f>AI6+1</f>
-        <v>45964</v>
+        <v>45978</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" ref="AK6:AP6" si="2">AJ6+1</f>
-        <v>45965</v>
+        <v>45979</v>
       </c>
       <c r="AL6" s="8">
         <f t="shared" si="2"/>
-        <v>45966</v>
+        <v>45980</v>
       </c>
       <c r="AM6" s="8">
         <f t="shared" si="2"/>
-        <v>45967</v>
+        <v>45981</v>
       </c>
       <c r="AN6" s="8">
         <f t="shared" si="2"/>
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="AO6" s="8">
         <f t="shared" si="2"/>
-        <v>45969</v>
+        <v>45983</v>
       </c>
       <c r="AP6" s="8">
         <f t="shared" si="2"/>
-        <v>45970</v>
+        <v>45984</v>
       </c>
       <c r="AQ6" s="8">
         <f>AP6+1</f>
-        <v>45971</v>
+        <v>45985</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" ref="AR6:AW6" si="3">AQ6+1</f>
-        <v>45972</v>
+        <v>45986</v>
       </c>
       <c r="AS6" s="8">
         <f t="shared" si="3"/>
-        <v>45973</v>
+        <v>45987</v>
       </c>
       <c r="AT6" s="8">
         <f t="shared" si="3"/>
-        <v>45974</v>
+        <v>45988</v>
       </c>
       <c r="AU6" s="8">
         <f t="shared" si="3"/>
-        <v>45975</v>
+        <v>45989</v>
       </c>
       <c r="AV6" s="8">
         <f t="shared" si="3"/>
-        <v>45976</v>
+        <v>45990</v>
       </c>
       <c r="AW6" s="8">
         <f t="shared" si="3"/>
-        <v>45977</v>
+        <v>45991</v>
       </c>
       <c r="AX6" s="8">
         <f>AW6+1</f>
-        <v>45978</v>
+        <v>45992</v>
       </c>
       <c r="AY6" s="8">
         <f t="shared" ref="AY6:BD6" si="4">AX6+1</f>
-        <v>45979</v>
+        <v>45993</v>
       </c>
       <c r="AZ6" s="8">
         <f t="shared" si="4"/>
-        <v>45980</v>
+        <v>45994</v>
       </c>
       <c r="BA6" s="8">
         <f t="shared" si="4"/>
-        <v>45981</v>
+        <v>45995</v>
       </c>
       <c r="BB6" s="8">
         <f t="shared" si="4"/>
-        <v>45982</v>
+        <v>45996</v>
       </c>
       <c r="BC6" s="8">
         <f t="shared" si="4"/>
-        <v>45983</v>
+        <v>45997</v>
       </c>
       <c r="BD6" s="8">
         <f t="shared" si="4"/>
-        <v>45984</v>
+        <v>45998</v>
       </c>
       <c r="BE6" s="8">
         <f>BD6+1</f>
-        <v>45985</v>
+        <v>45999</v>
       </c>
       <c r="BF6" s="8">
         <f t="shared" ref="BF6:BK6" si="5">BE6+1</f>
-        <v>45986</v>
+        <v>46000</v>
       </c>
       <c r="BG6" s="8">
         <f t="shared" si="5"/>
-        <v>45987</v>
+        <v>46001</v>
       </c>
       <c r="BH6" s="8">
         <f t="shared" si="5"/>
-        <v>45988</v>
+        <v>46002</v>
       </c>
       <c r="BI6" s="8">
         <f t="shared" si="5"/>
-        <v>45989</v>
+        <v>46003</v>
       </c>
       <c r="BJ6" s="8">
         <f t="shared" si="5"/>
-        <v>45990</v>
+        <v>46004</v>
       </c>
       <c r="BK6" s="8">
         <f t="shared" si="5"/>
-        <v>45991</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
@@ -1521,26 +1580,26 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10">
         <f>NETWORKDAYS(E7,F7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="11">
-        <f>MIN(E8:E11)</f>
+        <f>MIN(E8:E12)</f>
         <v>45936</v>
       </c>
       <c r="F7" s="11">
-        <f>MAX(F8:F11)</f>
-        <v>45939</v>
+        <f>MAX(F8:F12)</f>
+        <v>45940</v>
       </c>
       <c r="G7" s="12">
-        <f>SUMPRODUCT(D8:D11,G8:G11)/SUM(D8:D11)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(D8:D12,G8:G12)/SUM(D8:D12)</f>
+        <v>1</v>
       </c>
       <c r="H7" s="13" t="str">
-        <f t="shared" ref="H7:Q16" si="6">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" ref="H7:Q18" si="6">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="I7" s="14" t="str">
@@ -1580,7 +1639,7 @@
         <v/>
       </c>
       <c r="R7" s="14" t="str">
-        <f t="shared" ref="R7:AA16" si="7">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" ref="R7:AA18" si="7">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="S7" s="14" t="str">
@@ -1620,7 +1679,7 @@
         <v/>
       </c>
       <c r="AB7" s="15" t="str">
-        <f t="shared" ref="AB7:AK16" si="8">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" ref="AB7:AQ18" si="8">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AC7" s="13" t="str">
@@ -1724,7 +1783,7 @@
         <v/>
       </c>
       <c r="BB7" s="14" t="str">
-        <f t="shared" ref="BB7:BK16" si="10">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" ref="BB7:BK18" si="10">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="BC7" s="14" t="str">
@@ -1769,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>2</v>
@@ -1782,7 +1841,7 @@
         <v>45937</v>
       </c>
       <c r="G8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="6"/>
@@ -1937,7 +1996,7 @@
         <v/>
       </c>
       <c r="AT8" s="14" t="str">
-        <f t="shared" ref="AL8:BA27" si="11">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" ref="AL8:BA30" si="11">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AU8" s="14" t="str">
@@ -2014,20 +2073,20 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>45936</v>
       </c>
       <c r="F9" s="11">
         <f>WORKDAY(E9-1,D9)</f>
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="G9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="6"/>
@@ -2258,19 +2317,21 @@
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>45936</v>
       </c>
       <c r="F10" s="11">
         <f>WORKDAY(E10-1,D10)</f>
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="G10" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="6"/>
@@ -2499,27 +2560,27 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <v>45936</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" ref="F11:F30" si="12">WORKDAY(E11-1,D11)</f>
-        <v>45936</v>
+        <f>WORKDAY(E11-1,D11)</f>
+        <v>45940</v>
       </c>
       <c r="G11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>t</v>
+        <v/>
       </c>
       <c r="I11" s="14" t="str">
         <f t="shared" si="6"/>
@@ -2674,31 +2735,31 @@
         <v/>
       </c>
       <c r="AU11" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AU11:BJ11" si="12">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AV11" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AW11" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AX11" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AY11" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AZ11" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA11" s="14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BB11" s="14" t="str">
@@ -2744,26 +2805,23 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10">
-        <f>NETWORKDAYS(E12,F12)</f>
-        <v>22</v>
-      </c>
-      <c r="E12" s="11">
-        <f>MIN(E13:E16)</f>
+        <v>36</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>45936</v>
       </c>
       <c r="F12" s="11">
-        <f>MAX(F13:F16)</f>
-        <v>45965</v>
-      </c>
-      <c r="G12" s="12">
-        <f>SUMPRODUCT(D13:D16,G13:G16)/SUM(D13:D16)</f>
-        <v>0</v>
+        <f t="shared" ref="F12:F33" si="13">WORKDAY(E12-1,D12)</f>
+        <v>45936</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="6"/>
@@ -2992,21 +3050,26 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
-        <v>45936</v>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10">
+        <f>NETWORKDAYS(E13,F13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="11">
+        <f>MIN(E14:E18)</f>
+        <v>45943</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="12"/>
-        <v>45945</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
+        <f>MAX(F14:F18)</f>
+        <v>45944</v>
+      </c>
+      <c r="G13" s="12">
+        <f>SUMPRODUCT(D14:D18,G14:G18)/SUM(D14:D18)</f>
+        <v>1</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="6"/>
@@ -3237,343 +3300,347 @@
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="9">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="12"/>
-        <v>45965</v>
+        <f t="shared" si="13"/>
+        <v>45943</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="13"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O14" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q14" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U14" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V14" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA14" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB14" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC14" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI14" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK14" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AM14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AO14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AP14" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ14" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AR14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AS14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AT14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AU14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AV14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AW14" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AX14" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AY14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BA14" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BB14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BC14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD14" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BE14" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BF14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BG14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BH14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BI14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BJ14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BK14" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="9">
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="12"/>
-        <v>45936</v>
+        <f t="shared" si="13"/>
+        <v>45943</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N15" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U15" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V15" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Y15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Z15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA15" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB15" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC15" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AD15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AE15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AF15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AG15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AH15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AI15" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AJ15" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AK15" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AL15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AP15" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ15" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AR15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AS15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AT15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AU15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AV15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AW15" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AX15" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AY15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BA15" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BB15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BC15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BD15" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BE15" s="13" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BF15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BG15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BH15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BI15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ15" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BK15" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="15"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="12"/>
-        <v>45936</v>
+        <f t="shared" si="13"/>
+        <v>45943</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>t</v>
+        <v/>
       </c>
       <c r="I16" s="14" t="str">
         <f t="shared" si="6"/>
@@ -3592,23 +3659,23 @@
         <v/>
       </c>
       <c r="M16" s="14" t="str">
-        <f t="shared" ref="H16:Q30" si="13">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N16" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O16" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P16" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="14" t="str">
@@ -3632,23 +3699,23 @@
         <v/>
       </c>
       <c r="W16" s="14" t="str">
-        <f t="shared" ref="R16:AA30" si="14">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X16" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y16" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z16" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA16" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB16" s="15" t="str">
@@ -3672,23 +3739,23 @@
         <v/>
       </c>
       <c r="AG16" s="14" t="str">
-        <f t="shared" ref="AB16:AK30" si="15">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH16" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI16" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ16" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK16" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL16" s="14" t="str">
@@ -3776,410 +3843,409 @@
         <v/>
       </c>
       <c r="BG16" s="14" t="str">
-        <f t="shared" ref="BB16:BK30" si="16">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BH16" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BI16" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BJ16" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BK16" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="10">
-        <f>NETWORKDAYS(E17,F17)</f>
-        <v>13</v>
-      </c>
-      <c r="E17" s="11">
-        <f>MIN(E18:E30)</f>
-        <v>45936</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45943</v>
       </c>
       <c r="F17" s="11">
-        <f>MAX(F18:F24)</f>
-        <v>45952</v>
-      </c>
-      <c r="G17" s="12">
-        <f>SUMPRODUCT(D18:D24,G18:G24)/SUM(D18:D24)</f>
-        <v>0</v>
+        <f t="shared" ref="F17" si="14">WORKDAY(E17-1,D17)</f>
+        <v>45944</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
       </c>
       <c r="H17" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N17" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O17" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q17" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U17" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V17" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Y17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Z17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA17" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC17" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ17" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO17" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP17" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ17" s="13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR17" s="14" t="str">
+        <f t="shared" ref="AR17:BG17" si="15">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <v/>
+      </c>
+      <c r="AS17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AC17" s="13" t="str">
+      <c r="AT17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AD17" s="14" t="str">
+      <c r="AU17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AE17" s="14" t="str">
+      <c r="AV17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AF17" s="14" t="str">
+      <c r="AW17" s="15" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AG17" s="14" t="str">
+      <c r="AX17" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AH17" s="14" t="str">
+      <c r="AY17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AI17" s="15" t="str">
+      <c r="AZ17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AJ17" s="13" t="str">
+      <c r="BA17" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AK17" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AL17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AP17" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ17" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AR17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AS17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AT17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AU17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AV17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AW17" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AX17" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AY17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BA17" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="BB17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BC17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BD17" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BE17" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BF17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BG17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BH17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BI17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BJ17" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BK17" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" ref="F18:F24" si="17">WORKDAY(E18-1,D18)</f>
-        <v>45944</v>
+        <f t="shared" si="13"/>
+        <v>45943</v>
       </c>
       <c r="G18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H18:Q33" si="16">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="N18" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O18" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q18" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U18" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V18" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R18:AA33" si="17">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="X18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA18" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB18" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC18" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AB18:AQ33" si="18">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AH18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI18" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ18" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK18" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL18" s="14" t="str">
@@ -4247,182 +4313,187 @@
         <v/>
       </c>
       <c r="BB18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BC18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BD18" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BE18" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BF18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BG18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="BB18:BK33" si="19">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="BH18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ18" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK18" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="9">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45936</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10">
+        <f>NETWORKDAYS(E19,F19)</f>
+        <v>18</v>
+      </c>
+      <c r="E19" s="11">
+        <f>MIN(E20:E26)</f>
+        <v>45951</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="17"/>
-        <v>45944</v>
-      </c>
-      <c r="G19" s="17">
+        <f>MAX(F20:F26)</f>
+        <v>45974</v>
+      </c>
+      <c r="G19" s="12">
+        <f>SUMPRODUCT(D20:D26,G20:G26)/SUM(D20:D26)</f>
         <v>0</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N19" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O19" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q19" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U19" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V19" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA19" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB19" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC19" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI19" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ19" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK19" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL19" s="14" t="str">
@@ -4490,43 +4561,43 @@
         <v/>
       </c>
       <c r="BB19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD19" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE19" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ19" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK19" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -4534,138 +4605,140 @@
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="D20" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>45936</v>
+        <v>45951</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="17"/>
-        <v>45943</v>
+        <f t="shared" ref="F20:F26" si="20">WORKDAY(E20-1,D20)</f>
+        <v>45957</v>
       </c>
       <c r="G20" s="17">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N20" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O20" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U20" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V20" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA20" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB20" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC20" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI20" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ20" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK20" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL20" s="14" t="str">
@@ -4733,43 +4806,43 @@
         <v/>
       </c>
       <c r="BB20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD20" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE20" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK20" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -4777,138 +4850,140 @@
       <c r="B21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" s="9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>45936</v>
+        <v>45951</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="17"/>
-        <v>45952</v>
+        <f t="shared" si="20"/>
+        <v>45957</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N21" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O21" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q21" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U21" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V21" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA21" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB21" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC21" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI21" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ21" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK21" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL21" s="14" t="str">
@@ -4976,43 +5051,43 @@
         <v/>
       </c>
       <c r="BB21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD21" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE21" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ21" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK21" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -5020,781 +5095,784 @@
       <c r="B22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>45936</v>
+        <v>45951</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="17"/>
-        <v>45936</v>
+        <f t="shared" si="20"/>
+        <v>45958</v>
       </c>
       <c r="G22" s="17">
         <v>0</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="15"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="14"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="14"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="15"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="15"/>
+      <c r="H22" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N22" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O22" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q22" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U22" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V22" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA22" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB22" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC22" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI22" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK22" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AM22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AO22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AP22" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ22" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AR22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AS22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AT22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AU22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AV22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AW22" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AX22" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AY22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BA22" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BB22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD22" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE22" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ22" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK22" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D23" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1">
-        <v>45936</v>
+        <v>45958</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="17"/>
-        <v>45936</v>
+        <f t="shared" si="20"/>
+        <v>45974</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="15"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="15"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="15"/>
+      <c r="H23" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N23" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O23" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q23" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U23" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V23" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA23" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB23" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC23" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI23" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK23" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AM23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AO23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AP23" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ23" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AR23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AS23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AT23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AU23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AV23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AW23" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AX23" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AY23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BA23" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BB23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD23" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE23" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ23" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK23" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>45936</v>
+        <v>45958</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="17"/>
-        <v>45936</v>
+        <f t="shared" si="20"/>
+        <v>45958</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
       </c>
-      <c r="H24" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v>t</v>
-      </c>
-      <c r="I24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N24" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O24" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q24" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="T24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U24" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V24" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA24" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AB24" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AC24" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AE24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AF24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AI24" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AK24" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AL24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AP24" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ24" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AR24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AS24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AT24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AU24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AV24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AW24" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AX24" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AY24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BA24" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BB24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BC24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BD24" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BE24" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BF24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BG24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BH24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BI24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BJ24" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BK24" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="15"/>
     </row>
     <row r="25" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B25" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="10">
-        <f>NETWORKDAYS(E25,F25)</f>
-        <v>7</v>
-      </c>
-      <c r="E25" s="11">
-        <f>MIN(E26:E30)</f>
-        <v>45936</v>
+        <v>48</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45965</v>
       </c>
       <c r="F25" s="11">
-        <f>MAX(F26:F30)</f>
-        <v>45944</v>
-      </c>
-      <c r="G25" s="12">
-        <f>SUMPRODUCT(D26:D30,G26:G30)/SUM(D26:D30)</f>
+        <f t="shared" ref="F25" si="21">WORKDAY(E25-1,D25)</f>
+        <v>45971</v>
+      </c>
+      <c r="G25" s="17">
         <v>0</v>
       </c>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N25" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O25" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q25" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="T25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U25" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V25" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA25" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AB25" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AC25" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AE25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AF25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AI25" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AK25" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AL25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AP25" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AR25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AS25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AT25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AU25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AV25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AW25" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AX25" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AY25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BA25" s="14" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BB25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BC25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BD25" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BE25" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BF25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BG25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BH25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BI25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BK25" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="13"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="15"/>
     </row>
     <row r="26" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>45936</v>
+        <v>45974</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" ref="F26:F28" si="18">WORKDAY(E26-1,D26)</f>
-        <v>45936</v>
+        <f t="shared" si="20"/>
+        <v>45974</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N26" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O26" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q26" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U26" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V26" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA26" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB26" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC26" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF26" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>t</v>
       </c>
       <c r="AG26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ26" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK26" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL26" s="14" t="str">
@@ -5826,218 +5904,223 @@
         <v/>
       </c>
       <c r="AS26" s="14" t="str">
-        <f t="shared" ref="AL26:BA30" si="19">IF(AND(Typ="M",Start=Datum),"t","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AT26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AU26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AV26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AW26" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX26" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA26" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD26" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE26" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ26" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK26" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45936</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="10">
+        <f>NETWORKDAYS(E27,F27)</f>
+        <v>238</v>
+      </c>
+      <c r="E27" s="11">
+        <f>MIN(E28:E33)</f>
+        <v>45667</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="18"/>
-        <v>45944</v>
-      </c>
-      <c r="G27" s="17">
+        <f>MAX(F28:F33)</f>
+        <v>46000</v>
+      </c>
+      <c r="G27" s="12">
+        <f>SUMPRODUCT(D29:D33,G29:G33)/SUM(D29:D33)</f>
         <v>0</v>
       </c>
       <c r="H27" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N27" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O27" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q27" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U27" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V27" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA27" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB27" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC27" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI27" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ27" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK27" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL27" s="14" t="str">
@@ -6069,319 +6152,324 @@
         <v/>
       </c>
       <c r="AS27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AT27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AU27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AV27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AW27" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX27" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA27" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD27" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE27" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI27" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ27" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BK27" s="15"/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK27" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="D28" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1">
-        <v>45936</v>
+        <v>45979</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="18"/>
-        <v>45938</v>
+        <f t="shared" ref="F28" si="22">WORKDAY(E28-1,D28)</f>
+        <v>45987</v>
       </c>
       <c r="G28" s="17">
         <v>0</v>
       </c>
       <c r="H28" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N28" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O28" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q28" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U28" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V28" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA28" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB28" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC28" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI28" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ28" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK28" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AM28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AN28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AO28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AP28" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AQ28" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AR28:BG28" si="23">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AS28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AL28:BA33" si="24">IF(AND(Typ="M",Start=Datum),"t","")</f>
         <v/>
       </c>
       <c r="AT28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AU28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AV28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AW28" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AX28" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AY28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AZ28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BA28" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BB28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD28" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE28" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ28" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK28" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -6389,495 +6477,1229 @@
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D29" s="9">
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>45936</v>
+        <v>45979</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="12"/>
-        <v>45936</v>
+        <f t="shared" ref="F29:F30" si="25">WORKDAY(E29-1,D29)</f>
+        <v>45979</v>
       </c>
       <c r="G29" s="17">
         <v>0</v>
       </c>
       <c r="H29" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N29" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O29" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q29" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U29" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V29" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA29" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB29" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC29" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI29" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ29" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK29" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AN29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AO29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AP29" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ29" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AR29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AS29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AT29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AU29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AV29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AW29" s="15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AX29" s="13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AY29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AZ29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BA29" s="14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BB29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD29" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE29" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ29" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK29" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:63" x14ac:dyDescent="0.4">
       <c r="B30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1">
-        <v>45936</v>
+        <v>45979</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="12"/>
-        <v>45936</v>
+        <f t="shared" si="25"/>
+        <v>45987</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
       </c>
       <c r="H30" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N30" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O30" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q30" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U30" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V30" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA30" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB30" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC30" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI30" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK30" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AM30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AN30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AO30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AP30" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ30" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AR30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AS30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AV30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AW30" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AX30" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AY30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BA30" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BB30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD30" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE30" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ30" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK30" s="15"/>
+    </row>
+    <row r="31" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>45986</v>
+      </c>
+      <c r="F31" s="11">
         <f t="shared" si="13"/>
+        <v>45986</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N31" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O31" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q31" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U31" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V31" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA31" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB31" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC31" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI31" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK31" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AN31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AO31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AP31" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ31" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AR31" s="14" t="str">
+        <f t="shared" si="24"/>
         <v>t</v>
       </c>
-      <c r="I30" s="14" t="str">
+      <c r="AS31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AV31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AW31" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AX31" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AY31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BA31" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BB31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD31" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE31" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ31" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK31" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="B32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45987</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" ref="F32" si="26">WORKDAY(E32-1,D32)</f>
+        <v>46000</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N32" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O32" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q32" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U32" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V32" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA32" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB32" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC32" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI32" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK32" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AN32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AO32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AP32" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AR32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AS32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AV32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AW32" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AX32" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AY32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BA32" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BB32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD32" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE32" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ32" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK32" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29">
+        <v>45667</v>
+      </c>
+      <c r="F33" s="11">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N30" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O30" s="13" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q30" s="14" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="T30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U30" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V30" s="13" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AA30" s="14" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="AB30" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AC30" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AD30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AE30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AF30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AG30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AH30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AI30" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="13" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AK30" s="14" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="AL30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AM30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AN30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AO30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AP30" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="13" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AR30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AS30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AT30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AU30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AV30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AW30" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AX30" s="13" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AY30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BA30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BB30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BC30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BD30" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BE30" s="13" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BF30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BG30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BH30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BI30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BJ30" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BK30" s="15" t="str">
-        <f t="shared" si="16"/>
+        <v>45667</v>
+      </c>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N33" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O33" s="13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q33" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="T33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U33" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="V33" s="13" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Y33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Z33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AA33" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AB33" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AC33" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AD33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AE33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AF33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AG33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AH33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AI33" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="13" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AK33" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AL33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AN33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AO33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AP33" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AR33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AS33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AT33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AU33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AV33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AW33" s="15" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AX33" s="13" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AY33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BA33" s="14" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BB33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BC33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BD33" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BE33" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BF33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ33" s="14" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK33" s="15" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="20"/>
+    <row r="38" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="E38" s="20"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C37" s="18"/>
+    <row r="40" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="C40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6891,7 +7713,7 @@
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C30">
+  <conditionalFormatting sqref="C7:C33">
     <cfRule type="expression" dxfId="10" priority="1">
       <formula>$B7 ="M"</formula>
     </cfRule>
@@ -6902,7 +7724,7 @@
       <formula>OR($B7="A",$B7="M")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7 G7:G235 D12:E12 D8:D11 D17:E17 D13:D16 D25:E25 D18:D24 D26:D30">
+  <conditionalFormatting sqref="D7:E7 D13:E13 D19:E19 D27:E27 D8:D12 D14:D18 D20:D26 D28:D33 G7:G238">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$B7="P"</formula>
     </cfRule>
@@ -6912,12 +7734,12 @@
       <formula>MOD(H5,2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BK30">
+  <conditionalFormatting sqref="H5:BK33">
     <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>WEEKDAY(Datum,2)&gt;5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK30">
+  <conditionalFormatting sqref="H7:BK33">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>Datum=TODAY()</formula>
     </cfRule>
@@ -6935,7 +7757,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B30" xr:uid="{152D68E4-DB07-4F3D-AB03-14C306E50762}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B33" xr:uid="{152D68E4-DB07-4F3D-AB03-14C306E50762}">
       <formula1>"P,A,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6954,13 +7776,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>48986</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>56</xdr:col>
                     <xdr:colOff>201386</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>125186</xdr:rowOff>
                   </to>
                 </anchor>
